--- a/public/templates/template_comparaison_MS.xlsx
+++ b/public/templates/template_comparaison_MS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\webadm\projets\helios\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D01609-C8AC-4D31-8822-1803FCF9BF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71AE1CC-0753-4435-AC90-D5C67BA3C20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparaison" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Indicateurs</t>
   </si>
@@ -74,65 +74,560 @@
     <t>Mise à jour</t>
   </si>
   <si>
-    <t>Source : FINESS
+    <t>date_mis_a_jour_tdbPerf</t>
+  </si>
+  <si>
+    <t>date_mis_a_jour_cnsa</t>
+  </si>
+  <si>
+    <t>Taux d’occupation externat (en %)</t>
+  </si>
+  <si>
+    <t>Taux d’occupation semi-internat (en %)</t>
+  </si>
+  <si>
+    <t>Taux d’occupation internat (en %)</t>
+  </si>
+  <si>
+    <t>Taux d’occupation autre 1, 2 et 3 (en %)</t>
+  </si>
+  <si>
+    <t>Taux d'occupation Séances (en %)</t>
+  </si>
+  <si>
+    <t>date_mis_a_jour_finess</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FINESS
 Les établissements sont caractérisés dans FINESS par les activités, ou disciplines, qu’ils sont autorisés à exercer. Ces informations sont la traduction d’une réglementation et de la possibilité de pluridisciplinarité des établissements. Dans le domaine social et médico-social, les autorisations sont enregistrées directement au niveau des établissements. Pour indiquer les services offerts, FINESS identifie ceux-ci à l’aide d’un triplet composé des éléments suivants : Discipline/Fonctionnement/Clientèle. Exemple : Accueil en maison de retraite/ Hébergement complet internat/Personnes âgées autonomes. L’information disponible de la "capacité" des établissements concerne les places "installées".
-Fréquence : Hebdomadaire
-Mode de calcul : Nombre total de places installées et nombre total de places par type d’activité installée.
-Source(s) : Fichier National des Établissements Sanitaires et Sociaux (FINESS) - Agence du Numérique en Santé (ANS).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fréquence : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hebdomadaire
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nombre total de places installées et nombre total de places par type d’activité installée.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source(s) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fichier National des Établissements Sanitaires et Sociaux (FINESS) - Agence du Numérique en Santé (ANS).
 FINESS constitue la référence en matière d’inventaire des structures et équipements des domaines sanitaire, médico-social, social et de formation aux professions de ces secteurs. Les données de ce répertoire sont actualisées de façon continue par des agents en service dans les agences régionales de santé et dans les services déconcentrés de l’État</t>
-  </si>
-  <si>
-    <t>Source : TdB Perf
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TdB Perf
+A la différence du nombre de places autorisé pour la structure, la file active permet d’identifier le nombre de personnes vues pendant l’année écoulée. L’appellation « personne accompagnée » est le terme actuellement retenu dans les politique sociales et médico-sociales. Cette terminologie présente l’avantage de ne pas être stigmatisante et spécialisée (le terme d’accompagnement peut convenir pour un enfant d’ITEP ou un adulte de SESSAD ou une personne âgée vivant en établissement ou à domicile).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fréquence : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nombre de personnes accompagnées dans l’effectif au 31/12 + Nombre de sorties définitives dans l’année
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
+Conçu par l’Agence nationale d’appui à la performance des établissements de santé et médico-sociaux (ANAP) en étroite collaboration avec les représentants du secteur et mis en œuvre par l’ATIH à la demande conjointe du Ministère des solidarités et de la santé et de la Caisse nationale de solidarité pour l’autonomie (CNSA), le Tableau de bord de la performance est devenu un outil de référence pour l’ensemble des acteurs du secteur médico-social.
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TdB Perf
 Permet de mesurer le niveau d’activité de la structure.
-Fréquence : Annuelle
-Mode de calcul :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fréquence : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Numérateur : Nombre de journées réalisées, y compris hébergement temporaire, accueil de jour et quel que soit le mode d’accompagnement (internat, semi-internat, etc.)
 Dénominateur : Nombre de journées financées (y compris hébergement temporaire, accueil de jour et quel que soit le mode d’accompagnement).
-Source(s) : Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
 Conçu par l’Agence nationale d’appui à la performance des établissements de santé et médico-sociaux (ANAP) en étroite collaboration avec les représentants du secteur et mis en œuvre par l’ATIH à la demande conjointe du Ministère des solidarités et de la santé et de la Caisse nationale de solidarité pour l’autonomie (CNSA), le Tableau de bord de la performance est devenu un outil de référence pour l’ensemble des acteurs du secteur médico-social.
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>date_mis_a_jour_tdbPerf</t>
-  </si>
-  <si>
-    <t>Source : TdB Perf
-A la différence du nombre de places autorisé pour la structure, la file active permet d’identifier le nombre de personnes vues pendant l’année écoulée. L’appellation « personne accompagnée » est le terme actuellement retenu dans les politique sociales et médico-sociales. Cette terminologie présente l’avantage de ne pas être stigmatisante et spécialisée (le terme d’accompagnement peut convenir pour un enfant d’ITEP ou un adulte de SESSAD ou une personne âgée vivant en établissement ou à domicile).
-Fréquence : Annuelle
-Mode de calcul : Nombre de personnes accompagnées dans l’effectif au 31/12 + Nombre de sorties définitives dans l’année
-Source(s) : Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
-Conçu par l’Agence nationale d’appui à la performance des établissements de santé et médico-sociaux (ANAP) en étroite collaboration avec les représentants du secteur et mis en œuvre par l’ATIH à la demande conjointe du Ministère des solidarités et de la santé et de la Caisse nationale de solidarité pour l’autonomie (CNSA), le Tableau de bord de la performance est devenu un outil de référence pour l’ensemble des acteurs du secteur médico-social.
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CNSA 
+Le taux d’occupation est un indicateur permettant d’évaluer l’utilisation réelle des places disponibles dans un Établissement ou Service Médico-Social (ESMS). Il est couramment utilisé pour mesurer l’adéquation entre l’offre et la demande dans ces structures.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fréquence : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Calculé en divisant le nombre de journées réalisées (c’est-à-dire le nombre total de journées d’accompagnement effectuées par les bénéficiaires) et le nombre de journées théoriques (c’est-à-dire la capacité maximale théorique de l’ESMS sur une période, en fonction de son autorisation de places et de sa durée de fonctionnement)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ERRD Annexe 9a-9d (feuilles Activité Autres ESMS)
+Les ERRD (État Réalisé des Recettes et des Dépenses) et les CA (Compte Administratif), qu’ils soient dédiés PA ou PH, présentent une synthèse de l’activité de l’établissement (nombre de journées, nombre de bénéficiaires, taux d’occupation etc.).
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>Source : CNSA
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CNSA
 C’est une donnée qui mesure l’activité réalisée au regard de la capacité totale de l’établissement. Il permet de mettre en lumière le niveau de fréquentation des places existantes et de souligner la pression de la demande.
-Fréquence : Annuelle
-Mode de calcul : Calculé en divisant le nombre de journées réalisées dans l’année par l’établissement ou le service + les journées d’absence de moins de 72 heures pour convenance personnelle ou hospitalisation par le nombre de journées théoriques correspondant à la capacité autorisée et financée multiplié par le nombre de journées d’ouverture de l’établissement ou du service (capacité × nombre de jours d’ouverture annuel).
-Source(s) :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Calculé en divisant le nombre de journées réalisées dans l’année par l’établissement ou le service + les journées d’absence de moins de 72 heures pour convenance personnelle ou hospitalisation par le nombre de journées théoriques correspondant à la capacité autorisée et financée multiplié par le nombre de journées d’ouverture de l’établissement ou du service (capacité × nombre de jours d’ouverture annuel).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 ERRD annexe 9a-9d (feuilles « EHPAD-PUV-AJ-HT »)
 Les ERRD (État Réalisé des Recettes et des Dépenses) et les CA (Compte Administratif), qu’ils soient dédiés PA ou PH, présentent une synthèse de l’activité de l’établissement (nombre de journées, nombre de bénéficiaires, taux d’occupation etc.).
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation</t>
-  </si>
-  <si>
-    <t>date_mis_a_jour_cnsa</t>
-  </si>
-  <si>
-    <t>Source : CNSA
-C’est une donnée qui mesure l’activité réalisée au regard de la capacité totale de l’établissement. Il permet de mettre en lumière le niveau de fréquentation des places existantes et de souligner la pression de la demande.
-Fréquence : Annuelle
-Mode de calcul : Calculé en divisant le nombre de journées réalisées dans l’année par l’établissement ou le service + les journées d’absence de moins de 72 heures pour convenance personnelle ou hospitalisation par le nombre de journées théoriques correspondant à la capacité autorisée et financée multiplié par le nombre de journées d’ouverture de l’établissement ou du service (capacité × nombre de jours d’ouverture annuel).
-Source(s) :
-ERRD annexe 9a-9d (feuilles « EHPAD-PUV-AJ-HT »)
-Les ERRD (État Réalisé des Recettes et des Dépenses) et les CA (Compte Administratif), qu’ils soient dédiés PA ou PH, présentent une synthèse de l’activité de l’établissement (nombre de journées, nombre de bénéficiaires, taux d’occupation etc.).
-Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>Source : TdB Perf
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TdB Perf
 Cet indicateur permet d’estimer l’importance financière de l’externalisation de prestations directes. Il vient compléter les indicateurs RH internes pour donner une vision plus large des ressources mobilisées pour mettre en œuvre une mission.
-Fréquence : Annuelle
-Mode de calcul :
-Numérateur : Somme des comptes (en €) :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fréquence : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Numérateur : Somme des comptes (en €) :
 6111 « Prestations à caractère médical » (M22) / « Sous-traitance à caractère médical » (M21)
 6112 « Prestations à caractère médico-social » (M22) / « Sous-traitance à caractère médico-social » (M21)
 621 « Personnel extérieur à l’établissement » en lien avec des prestations directes (hors 62111 « Personnel administratif et hôtelier » et autres personnels sans lien avec des prestations directes) (M21 et M22)
@@ -142,38 +637,288 @@
 Total des dépenses de personnel (groupe 2 de dépenses ou du titre I) (en €)
 + montant du compte 6111 « Prestations à caractère médical» (M22) / « Sous-traitance à caractère médical » (M21)
 + montant du compte 6112 « Prestations à caractère médico-social »(M22) / « Sous-traitance à caractère médico-social» (M21)
-Source(s) : Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>Source : TdB Perf
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TdB Perf
 Cet indicateur permet d’estimer la stabilité des effectifs CDI ou titulaires ainsi que l’importance du renouvellement des équipes. Ainsi, plus le taux est élevé, plus le renouvellement des équipes a été important au cours de l’année.
-Fréquence : Annuelle
-Mode de calcul : Numérateur : Somme du taux d’entrée et du taux de sortie
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Numérateur : Somme du taux d’entrée et du taux de sortie
 Taux d’entrée : Nombre de recrutements au cours de l’année / Effectifs réels en nombre de personnes au 31/12/N-1
 Taux de sortie : Nombre de départs dans l’année / Effectifs réels en nombre de personnes au 31/12/N-1
 Dénominateur : 2
-Source(s) : Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>Source : TdB Perf
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TdB Perf
 Les postes vacants font référence aux postes non pourvus et aux postes pourvus grâce à une prestation externe, libérale ou conventionnelle.
-Fréquence : Annuelle
-Mode de calcul : Les postes sont considérés comme vacants dès lors que l’absence est supérieure à 6 mois. Le nombre d’ETP vacants est à comprendre comme la différence entre les ETP budgétés et les ETP réalisés.
-Source(s) : Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fréquence : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Les postes sont considérés comme vacants dès lors que l’absence est supérieure à 6 mois. Le nombre d’ETP vacants est à comprendre comme la différence entre les ETP budgétés et les ETP réalisés.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Source(s) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>Source : TdB Perf
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TdB Perf
 Cet indicateur permet d’estimer l’absentéisme au global et pour les motifs suivants :
 arrêts maladie
 AT-MP
 maternité
 congés spéciaux (hors congés payés)
 au sein des effectifs.
-Fréquence : Annuelle
-Mode de calcul : Numérateur : Somme des nombres de jours calendaires d’absence par motif :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fréquence : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Numérateur : Somme des nombres de jours calendaires d’absence par motif :
 maladie ordinaire / de courte durée
 maladie longue durée
 maladie moyenne durée
@@ -181,14 +926,97 @@
 accident du travail / maladie professionnelle
 congés spéciaux dont les congés sans solde (hors congés payés)
 Dénominateur : Nombre d’ETP réels x 365
-Source(s) : Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source(s) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>Source : CNSA
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CNSA
 Cet indicateur traduit la capacité de l’établissement à dégager annuellement, grâce à son exploitation, les fonds nécessaires aux investissements. Le montant de la CAF peut être affecté au remboursement des emprunts, à l’investissement ou au renforcement des fonds propres de la structure en vue des investissements futurs. Un taux de CAF inférieur à 2% est un critère de déséquilibre financier.
-Fréquence : Annuelle
-Mode de calcul :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Capacité d’autofinancement (CAF) =
 Résultat de l’exercice
 + compte 68 « Dotations aux amortissements, aux dépréciations et aux provisions »
@@ -198,81 +1026,312 @@
 − compte 777 « subventions d’investissement virées au résultat » (M22) / « Quote-part des subventions d’investissement virées au résultat » (M21)
 − compte 778 « Autres produits exceptionnels »
 / Somme des comptes de classe 7 réalisés (sauf c/775, c/777, c/7781 et c/78) - c/709 et c/713
-Source(s) : Caisse nationale de solidarité pour l’autonomie (CNSA)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Caisse nationale de solidarité pour l’autonomie (CNSA)
 ERRD annexe 8 (feuilles « Ratios financiers »)
 ERRD annexe 11 (feuille « Fiche_Récap. »)
 CA PH (« Charges expl. » et « Produits expl. »)
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>Source : TdB Perf
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TdB Perf
 Cet indicateur permet d’estimer le degré d’amortissement des constructions sur la base des éléments comptables. Plus le taux est élevé, plus les constructions sont amorties.
-Fréquence : Annuelle
-Mode de calcul : Amortissements des constructions / Immobilisations corporelles brutes construction.
-Source(s) : Caisse nationale de solidarité pour l’autonomie (CNSA)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Amortissements des constructions / Immobilisations corporelles brutes construction.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source(s) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Caisse nationale de solidarité pour l’autonomie (CNSA)
 ERRD annexe 8 (feuilles « Ratios financiers »)
 CA (feuille « ANNEXE 8 »)
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité</t>
-  </si>
-  <si>
-    <t>Source : TdB Perf
-Le fonds de roulement représente les ressources dont dispose l’ESMS pour financier son cycle d’exploitation et son cycle d’investissement. Si cet agrégat est positif, cela signifie que l’ESMS dégage des ressources disponibles pour financer d’éventuels besoins liés au court ou moyen terme. A l’inverse, un fonds de roulement négatif traduit généralement une situation de déficit financier.
-Fréquence : Annuelle
-Mode de calcul :
-Montant du fonds de roulement (FRNG) : écart entre les capitaux permanents et les actifs immobilisés, soit la soustraction entre :
-La somme des comptes débiteurs de classes 1 et 2
-La somme des comptes créditeurs de classe 1 et 2, ainsi que les comptes créditeurs 39, 49 et 59
-Source(s) : Caisse nationale de solidarité pour l’autonomie (CNSA)
-ERRD annexe 8 (feuille « Ratios financiers »)
-Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>Source : TdB Perf
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TdB Perf
 Le résultat de l’exercice consiste en la différence entre les recettes/produits et les dépenses/charges comptabilisés au cours de l’exercice toutes activités confondues.
-Fréquence : Annuelle
-Source(s) : Caisse nationale de solidarité pour l’autonomie (CNSA)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fréquence : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Caisse nationale de solidarité pour l’autonomie (CNSA)
 ERRD annexe 8 (feuilles « CRP SOUMIS EQUILIBRE », « CRP NON SOUMIS EQUIL » et « CRA »)
 ERRD annexe 10 (feuilles « CRP NON SOUMIS EQUIL » et « CRA »)
 ERRD annexe 11 (feuille « CRA »)
 CA PH (feuilles « Charges expl. » et « Produits expl. »)
 CA PA (feuille « Charges-Produits »)
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>Taux d’occupation externat (en %)</t>
-  </si>
-  <si>
-    <t>Source : CNSA 
-Le taux d’occupation est un indicateur permettant d’évaluer l’utilisation réelle des places disponibles dans un Établissement ou Service Médico-Social (ESMS). Il est couramment utilisé pour mesurer l’adéquation entre l’offre et la demande dans ces structures.
-Fréquence : Annuelle
-Mode de calcul : Calculé en divisant le nombre de journées réalisées (c’est-à-dire le nombre total de journées d’accompagnement effectuées par les bénéficiaires) et le nombre de journées théoriques (c’est-à-dire la capacité maximale théorique de l’ESMS sur une période, en fonction de son autorisation de places et de sa durée de fonctionnement)
-Source(s) :
-ERRD Annexe 9a-9d (feuilles Activité Autres ESMS)
-Les ERRD (État Réalisé des Recettes et des Dépenses) et les CA (Compte Administratif), qu’ils soient dédiés PA ou PH, présentent une synthèse de l’activité de l’établissement (nombre de journées, nombre de bénéficiaires, taux d’occupation etc.).
-Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>Taux d’occupation semi-internat (en %)</t>
-  </si>
-  <si>
-    <t>Taux d’occupation internat (en %)</t>
-  </si>
-  <si>
-    <t>Taux d’occupation autre 1, 2 et 3 (en %)</t>
-  </si>
-  <si>
-    <t>Taux d'occupation Séances (en %)</t>
-  </si>
-  <si>
-    <t>date_mis_a_jour_finess</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TdB Perf
+Le fonds de roulement représente les ressources dont dispose l’ESMS pour financier son cycle d’exploitation et son cycle d’investissement. Si cet agrégat est positif, cela signifie que l’ESMS dégage des ressources disponibles pour financer d’éventuels besoins liés au court ou moyen terme. A l’inverse, un fonds de roulement négatif traduit généralement une situation de déficit financier.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fréquence : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Mode de calcul :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Montant du fonds de roulement (FRNG) : écart entre les capitaux permanents et les actifs immobilisés, soit la soustraction entre :
+La somme des comptes débiteurs de classes 1 et 2
+La somme des comptes créditeurs de classe 1 et 2, ainsi que les comptes créditeurs 39, 49 et 59
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source(s) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Caisse nationale de solidarité pour l’autonomie (CNSA)
+ERRD annexe 8 (feuille « Ratios financiers »)
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -300,11 +1359,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -313,6 +1369,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,7 +1719,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -669,234 +1731,216 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="134.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="134.3984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="327.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:3" ht="312" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="177.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="9" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
     </row>
-    <row r="7" spans="1:3" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
+    <row r="13" spans="1:3" ht="390" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="14" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="405.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="17" spans="1:3" ht="405.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="10" spans="1:3" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="18" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="11" spans="1:3" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="19" spans="1:3" ht="302.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="393.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="252" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/templates/template_comparaison_MS.xlsx
+++ b/public/templates/template_comparaison_MS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\webadm\projets\helios\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71AE1CC-0753-4435-AC90-D5C67BA3C20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F079C0BB-4954-401D-98BD-E461652969BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparaison" sheetId="1" r:id="rId1"/>
@@ -300,100 +300,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">TdB Perf
-Permet de mesurer le niveau d’activité de la structure.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Fréquence : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Annuelle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mode de calcul :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Numérateur : Nombre de journées réalisées, y compris hébergement temporaire, accueil de jour et quel que soit le mode d’accompagnement (internat, semi-internat, etc.)
-Dénominateur : Nombre de journées financées (y compris hébergement temporaire, accueil de jour et quel que soit le mode d’accompagnement).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Source(s) :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
-Conçu par l’Agence nationale d’appui à la performance des établissements de santé et médico-sociaux (ANAP) en étroite collaboration avec les représentants du secteur et mis en œuvre par l’ATIH à la demande conjointe du Ministère des solidarités et de la santé et de la Caisse nationale de solidarité pour l’autonomie (CNSA), le Tableau de bord de la performance est devenu un outil de référence pour l’ensemble des acteurs du secteur médico-social.
-Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Source : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">CNSA 
 Le taux d’occupation est un indicateur permettant d’évaluer l’utilisation réelle des places disponibles dans un Établissement ou Service Médico-Social (ESMS). Il est couramment utilisé pour mesurer l’adéquation entre l’offre et la demande dans ces structures.
 </t>
@@ -1315,6 +1221,101 @@
       <t>Caisse nationale de solidarité pour l’autonomie (CNSA)
 ERRD annexe 8 (feuille « Ratios financiers »)
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TdB Perf
+Permet de mesurer le niveau d’activité de la structure.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fréquence : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Numérateur : Nombre de journées réalisées, y compris hébergement temporaire, accueil de jour et quel que soit le mode d’accompagnement (internat, semi-internat, etc.)
+Dénominateur : Nombre de journées financées (y compris hébergement temporaire, accueil de jour et quel que soit le mode d’accompagnement).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
+Conçu par l’Agence nationale d’appui à la performance des établissements de santé et médico-sociaux (ANAP) en étroite collaboration avec les représentants du secteur et mis en œuvre par l’ATIH à la demande conjointe du Ministère des solidarités et de la santé et de la Caisse nationale de solidarité pour l’autonomie (CNSA), le Tableau de bord de la performance est devenu un outil de référence pour l’ensemble des acteurs du secteur médico-social.
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.
+</t>
     </r>
   </si>
 </sst>
@@ -1371,10 +1372,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1749,7 +1750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="279" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="327.60000000000002" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="352.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1768,10 +1769,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="312" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="317.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1782,71 +1783,71 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="246" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="177.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="197.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="390" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1854,10 +1855,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="298.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1865,10 +1866,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1876,10 +1877,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="405.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1887,10 +1888,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="405.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -1898,10 +1899,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -1909,10 +1910,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="302.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="319.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -1920,10 +1921,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="249.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/public/templates/template_comparaison_MS.xlsx
+++ b/public/templates/template_comparaison_MS.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\webadm\projets\helios\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F079C0BB-4954-401D-98BD-E461652969BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F079C0BB-4954-401D-98BD-E461652969BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D29013A-4563-4221-BE0D-8043D3372986}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Comparaison" sheetId="1" r:id="rId1"/>
-    <sheet name="Lisez-moi" sheetId="2" r:id="rId2"/>
+    <sheet name="Lisez-moi" sheetId="2" r:id="rId1"/>
+    <sheet name="Comparaison" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,73 +42,13 @@
     <t>Indicateurs</t>
   </si>
   <si>
-    <t>Taux de réalisation de l'activité (en %)</t>
-  </si>
-  <si>
-    <t>File active des personnes accompagnées sur la période</t>
-  </si>
-  <si>
-    <t>Taux d'occupation en hébergement permanent (en %)</t>
-  </si>
-  <si>
-    <t>Taux d'occupation en hébergement temporaire (en %)</t>
-  </si>
-  <si>
-    <t>Taux d'occupation en accueil de jour (en %)</t>
-  </si>
-  <si>
-    <t>Taux de prestations externes sur les prestations directes (en %)</t>
-  </si>
-  <si>
-    <t>Taux de rotation du personnel sur effectifs réels (en %)</t>
-  </si>
-  <si>
-    <t>Taux d'ETP vacants au 31/12 (en %)</t>
-  </si>
-  <si>
-    <t>Taux d'absentéisme (en %)</t>
-  </si>
-  <si>
-    <t>Taux de CAF (en %)</t>
-  </si>
-  <si>
-    <t>Taux de vétusté des construction (en %)</t>
-  </si>
-  <si>
-    <t>Fond de roulement net global (en €)</t>
-  </si>
-  <si>
-    <t>Résultat net comptable (en €)</t>
+    <t>Mise à jour</t>
   </si>
   <si>
     <t>Détails de l'indicateur</t>
   </si>
   <si>
     <t>Capacité Totale</t>
-  </si>
-  <si>
-    <t>Mise à jour</t>
-  </si>
-  <si>
-    <t>date_mis_a_jour_tdbPerf</t>
-  </si>
-  <si>
-    <t>date_mis_a_jour_cnsa</t>
-  </si>
-  <si>
-    <t>Taux d’occupation externat (en %)</t>
-  </si>
-  <si>
-    <t>Taux d’occupation semi-internat (en %)</t>
-  </si>
-  <si>
-    <t>Taux d’occupation internat (en %)</t>
-  </si>
-  <si>
-    <t>Taux d’occupation autre 1, 2 et 3 (en %)</t>
-  </si>
-  <si>
-    <t>Taux d'occupation Séances (en %)</t>
   </si>
   <si>
     <t>date_mis_a_jour_finess</t>
@@ -187,6 +143,110 @@
       <t>Fichier National des Établissements Sanitaires et Sociaux (FINESS) - Agence du Numérique en Santé (ANS).
 FINESS constitue la référence en matière d’inventaire des structures et équipements des domaines sanitaire, médico-social, social et de formation aux professions de ces secteurs. Les données de ce répertoire sont actualisées de façon continue par des agents en service dans les agences régionales de santé et dans les services déconcentrés de l’État</t>
     </r>
+  </si>
+  <si>
+    <t>Taux de réalisation de l'activité (en %)</t>
+  </si>
+  <si>
+    <t>date_mis_a_jour_tdbPerf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TdB Perf
+Permet de mesurer le niveau d’activité de la structure.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fréquence : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Numérateur : Nombre de journées réalisées, y compris hébergement temporaire, accueil de jour et quel que soit le mode d’accompagnement (internat, semi-internat, etc.)
+Dénominateur : Nombre de journées financées (y compris hébergement temporaire, accueil de jour et quel que soit le mode d’accompagnement).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
+Conçu par l’Agence nationale d’appui à la performance des établissements de santé et médico-sociaux (ANAP) en étroite collaboration avec les représentants du secteur et mis en œuvre par l’ATIH à la demande conjointe du Ministère des solidarités et de la santé et de la Caisse nationale de solidarité pour l’autonomie (CNSA), le Tableau de bord de la performance est devenu un outil de référence pour l’ensemble des acteurs du secteur médico-social.
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>File active des personnes accompagnées sur la période</t>
   </si>
   <si>
     <r>
@@ -279,6 +339,115 @@
 Conçu par l’Agence nationale d’appui à la performance des établissements de santé et médico-sociaux (ANAP) en étroite collaboration avec les représentants du secteur et mis en œuvre par l’ATIH à la demande conjointe du Ministère des solidarités et de la santé et de la Caisse nationale de solidarité pour l’autonomie (CNSA), le Tableau de bord de la performance est devenu un outil de référence pour l’ensemble des acteurs du secteur médico-social.
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
     </r>
+  </si>
+  <si>
+    <t>Taux d'occupation en hébergement permanent (en %)</t>
+  </si>
+  <si>
+    <t>date_mis_a_jour_cnsa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CNSA
+C’est une donnée qui mesure l’activité réalisée au regard de la capacité totale de l’établissement. Il permet de mettre en lumière le niveau de fréquentation des places existantes et de souligner la pression de la demande.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Calculé en divisant le nombre de journées réalisées dans l’année par l’établissement ou le service + les journées d’absence de moins de 72 heures pour convenance personnelle ou hospitalisation par le nombre de journées théoriques correspondant à la capacité autorisée et financée multiplié par le nombre de journées d’ouverture de l’établissement ou du service (capacité × nombre de jours d’ouverture annuel).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ERRD annexe 9a-9d (feuilles « EHPAD-PUV-AJ-HT »)
+Les ERRD (État Réalisé des Recettes et des Dépenses) et les CA (Compte Administratif), qu’ils soient dédiés PA ou PH, présentent une synthèse de l’activité de l’établissement (nombre de journées, nombre de bénéficiaires, taux d’occupation etc.).
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation</t>
+    </r>
+  </si>
+  <si>
+    <t>Taux d'occupation en hébergement temporaire (en %)</t>
+  </si>
+  <si>
+    <t>Taux d'occupation en accueil de jour (en %)</t>
+  </si>
+  <si>
+    <t>Taux d’occupation externat (en %)</t>
   </si>
   <si>
     <r>
@@ -374,98 +543,19 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Source : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CNSA
-C’est une donnée qui mesure l’activité réalisée au regard de la capacité totale de l’établissement. Il permet de mettre en lumière le niveau de fréquentation des places existantes et de souligner la pression de la demande.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Fréquence :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Annuelle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mode de calcul : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calculé en divisant le nombre de journées réalisées dans l’année par l’établissement ou le service + les journées d’absence de moins de 72 heures pour convenance personnelle ou hospitalisation par le nombre de journées théoriques correspondant à la capacité autorisée et financée multiplié par le nombre de journées d’ouverture de l’établissement ou du service (capacité × nombre de jours d’ouverture annuel).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Source(s) :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ERRD annexe 9a-9d (feuilles « EHPAD-PUV-AJ-HT »)
-Les ERRD (État Réalisé des Recettes et des Dépenses) et les CA (Compte Administratif), qu’ils soient dédiés PA ou PH, présentent une synthèse de l’activité de l’établissement (nombre de journées, nombre de bénéficiaires, taux d’occupation etc.).
-Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation</t>
-    </r>
+    <t>Taux d’occupation semi-internat (en %)</t>
+  </si>
+  <si>
+    <t>Taux d’occupation internat (en %)</t>
+  </si>
+  <si>
+    <t>Taux d’occupation autre 1, 2 et 3 (en %)</t>
+  </si>
+  <si>
+    <t>Taux d'occupation Séances (en %)</t>
+  </si>
+  <si>
+    <t>Taux de prestations externes sur les prestations directes (en %)</t>
   </si>
   <si>
     <r>
@@ -569,6 +659,9 @@
     </r>
   </si>
   <si>
+    <t>Taux de rotation du personnel sur effectifs réels (en %)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -663,6 +756,9 @@
     </r>
   </si>
   <si>
+    <t>Taux d'ETP vacants au 31/12 (en %)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -755,13 +851,15 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t>Taux d'absentéisme (en %)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>Source :</t>
@@ -769,9 +867,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> TdB Perf
@@ -787,9 +884,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Fréquence : </t>
@@ -797,9 +893,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Annuelle
@@ -809,9 +904,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Mode de calcul : </t>
@@ -819,9 +913,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Numérateur : Somme des nombres de jours calendaires d’absence par motif :
@@ -838,9 +931,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Source(s) : </t>
@@ -848,9 +940,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
@@ -858,13 +949,15 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t>Taux de CAF (en %)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>Source :</t>
@@ -872,9 +965,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> CNSA
@@ -885,9 +977,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>Fréquence :</t>
@@ -895,9 +986,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Annuelle
@@ -907,23 +997,21 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mode de calcul :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Capacité d’autofinancement (CAF) =
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Capacité d’autofinancement (CAF) =
 Résultat de l’exercice
 + compte 68 « Dotations aux amortissements, aux dépréciations et aux provisions »
 − compte 78 « Reprises sur amortissements et provisions »
@@ -938,9 +1026,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>Source(s) :</t>
@@ -948,9 +1035,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Caisse nationale de solidarité pour l’autonomie (CNSA)
@@ -961,13 +1047,15 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t>Taux de vétusté des construction (en %)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Source : </t>
@@ -975,9 +1063,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">TdB Perf
@@ -988,9 +1075,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>Fréquence :</t>
@@ -998,9 +1084,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Annuelle
@@ -1010,9 +1095,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Mode de calcul : </t>
@@ -1020,9 +1104,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Amortissements des constructions / Immobilisations corporelles brutes construction.
@@ -1032,9 +1115,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Source(s) : </t>
@@ -1042,9 +1124,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>Caisse nationale de solidarité pour l’autonomie (CNSA)
@@ -1054,13 +1135,106 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t>Fond de roulement net global (en €)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TdB Perf
+Le fonds de roulement représente les ressources dont dispose l’ESMS pour financier son cycle d’exploitation et son cycle d’investissement. Si cet agrégat est positif, cela signifie que l’ESMS dégage des ressources disponibles pour financer d’éventuels besoins liés au court ou moyen terme. A l’inverse, un fonds de roulement négatif traduit généralement une situation de déficit financier.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fréquence : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Mode de calcul :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Montant du fonds de roulement (FRNG) : écart entre les capitaux permanents et les actifs immobilisés, soit la soustraction entre :
+La somme des comptes débiteurs de classes 1 et 2
+La somme des comptes créditeurs de classe 1 et 2, ainsi que les comptes créditeurs 39, 49 et 59
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source(s) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Caisse nationale de solidarité pour l’autonomie (CNSA)
+ERRD annexe 8 (feuille « Ratios financiers »)
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
+    </r>
+  </si>
+  <si>
+    <t>Résultat net comptable (en €)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Source : </t>
@@ -1068,9 +1242,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">TdB Perf
@@ -1081,9 +1254,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Fréquence : </t>
@@ -1091,9 +1263,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Annuelle
@@ -1103,9 +1274,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>Source(s) :</t>
@@ -1113,9 +1283,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Caisse nationale de solidarité pour l’autonomie (CNSA)
@@ -1127,203 +1296,12 @@
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
     </r>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Source :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> TdB Perf
-Le fonds de roulement représente les ressources dont dispose l’ESMS pour financier son cycle d’exploitation et son cycle d’investissement. Si cet agrégat est positif, cela signifie que l’ESMS dégage des ressources disponibles pour financer d’éventuels besoins liés au court ou moyen terme. A l’inverse, un fonds de roulement négatif traduit généralement une situation de déficit financier.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Fréquence : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Annuelle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Mode de calcul :
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Montant du fonds de roulement (FRNG) : écart entre les capitaux permanents et les actifs immobilisés, soit la soustraction entre :
-La somme des comptes débiteurs de classes 1 et 2
-La somme des comptes créditeurs de classe 1 et 2, ainsi que les comptes créditeurs 39, 49 et 59
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Source(s) : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Caisse nationale de solidarité pour l’autonomie (CNSA)
-ERRD annexe 8 (feuille « Ratios financiers »)
-Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Source : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">TdB Perf
-Permet de mesurer le niveau d’activité de la structure.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Fréquence : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Annuelle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mode de calcul :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Numérateur : Nombre de journées réalisées, y compris hébergement temporaire, accueil de jour et quel que soit le mode d’accompagnement (internat, semi-internat, etc.)
-Dénominateur : Nombre de journées financées (y compris hébergement temporaire, accueil de jour et quel que soit le mode d’accompagnement).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Source(s) :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tableau de bord de la performance dans le secteur médico-social - Agence technique de l’information sur l’hospitalisation (ATIH)
-Conçu par l’Agence nationale d’appui à la performance des établissements de santé et médico-sociaux (ANAP) en étroite collaboration avec les représentants du secteur et mis en œuvre par l’ATIH à la demande conjointe du Ministère des solidarités et de la santé et de la Caisse nationale de solidarité pour l’autonomie (CNSA), le Tableau de bord de la performance est devenu un outil de référence pour l’ensemble des acteurs du secteur médico-social.
-Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.
-</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1337,6 +1315,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1360,7 +1351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1376,6 +1367,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1715,224 +1709,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587C9ED0-279B-44AC-9485-AC6832055B1B}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="134.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="134.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="279" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="352.9" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="317.45" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="246" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="46.9">
+      <c r="A6" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="279" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="352.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="317.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="246" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="46.9">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="197.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="197.45" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.15">
+      <c r="A9" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31.15">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="31.15">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="31.15">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="409.15" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="298.89999999999998" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="228" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="409.15" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="298.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="17" spans="1:3" ht="409.15" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="255" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
+      <c r="C18" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="228" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
+    <row r="19" spans="1:3" ht="319.89999999999998" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="319.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    <row r="20" spans="1:3" ht="270.60000000000002" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1945,4 +1927,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/templates/template_comparaison_MS.xlsx
+++ b/public/templates/template_comparaison_MS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\webadm\projets\helios\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://catamaniacrm-my.sharepoint.com/personal/y_elhouakmi_catamania_com/Documents/Documents/DNum/Helios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F079C0BB-4954-401D-98BD-E461652969BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D29013A-4563-4221-BE0D-8043D3372986}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F079C0BB-4954-401D-98BD-E461652969BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6024470-244B-4C6C-949F-779E1AB78ED3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lisez-moi" sheetId="2" r:id="rId1"/>
@@ -1047,9 +1047,6 @@
     </r>
   </si>
   <si>
-    <t>Taux de vétusté des construction (en %)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1296,12 +1293,15 @@
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
     </r>
   </si>
+  <si>
+    <t>Taux de vétusté des constructions (en %)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1362,14 +1362,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1714,14 +1714,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="134.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="134.3984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="279" customHeight="1">
+    <row r="2" spans="1:3" ht="279" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="352.9" customHeight="1">
+    <row r="3" spans="1:3" ht="352.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="317.45" customHeight="1">
+    <row r="4" spans="1:3" ht="317.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1765,71 +1765,71 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="246" customHeight="1">
+    <row r="5" spans="1:3" ht="246" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="46.9">
+    <row r="6" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" ht="46.9">
+    <row r="7" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" ht="197.45" customHeight="1">
+    <row r="8" spans="1:3" ht="197.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.15">
+    <row r="9" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" ht="31.15">
+    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" ht="31.15">
+    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="31.15">
+    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" ht="409.15" customHeight="1">
+    <row r="13" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="298.89999999999998" customHeight="1">
+    <row r="14" spans="1:3" ht="298.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="228" customHeight="1">
+    <row r="15" spans="1:3" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -1862,59 +1862,59 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="409.15" customHeight="1">
+    <row r="16" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="409.15" customHeight="1">
+    <row r="17" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="255" customHeight="1">
+    <row r="18" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="319.89999999999998" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="270.60000000000002" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>37</v>
+      <c r="C20" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +1935,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/templates/template_comparaison_MS.xlsx
+++ b/public/templates/template_comparaison_MS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://catamaniacrm-my.sharepoint.com/personal/y_elhouakmi_catamania_com/Documents/Documents/DNum/Helios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F079C0BB-4954-401D-98BD-E461652969BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6024470-244B-4C6C-949F-779E1AB78ED3}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{F079C0BB-4954-401D-98BD-E461652969BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F66F258-AE34-476B-AC09-9369AA712192}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lisez-moi" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Indicateurs</t>
   </si>
@@ -1295,6 +1295,9 @@
   </si>
   <si>
     <t>Taux de vétusté des constructions (en %)</t>
+  </si>
+  <si>
+    <t>Taux d'occupation global (en %)</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1370,6 +1373,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1710,7 +1716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587C9ED0-279B-44AC-9485-AC6832055B1B}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1794,7 +1800,7 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1805,115 +1811,122 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="298.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="228" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="298.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1921,8 +1934,8 @@
   <mergeCells count="4">
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/templates/template_comparaison_MS.xlsx
+++ b/public/templates/template_comparaison_MS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://catamaniacrm-my.sharepoint.com/personal/y_elhouakmi_catamania_com/Documents/Documents/DNum/Helios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Helios\home\schlaifa\workspace\helios\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{F079C0BB-4954-401D-98BD-E461652969BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F66F258-AE34-476B-AC09-9369AA712192}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480461F9-2FAB-4D0F-AA06-BF1479CF6BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lisez-moi" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Indicateurs</t>
   </si>
@@ -1298,6 +1298,99 @@
   </si>
   <si>
     <t>Taux d'occupation global (en %)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: CNSA 
+Le taux d’occupation est un indicateur permettant d’évaluer l’utilisation réelle des places disponibles dans un Établissement ou Service Médico-Social (ESMS). Il est couramment utilisé pour mesurer l’adéquation entre l’offre et la demande dans ces structures.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Calculé en divisant le nombre de journées réalisées sur les modalités Externat, semi internat, Internat, Séances, Autre1, Autre2 et Autre3 (c’est-à-dire le nombre total de journées d’accompagnement effectuées par les bénéficiaires) et le nombre de journées théoriques sur les modalités Externat, semi internat, Internat, Séances, Autre1, Autre2 et Autre3 (c’est-à-dire la capacité maximale théorique de l’ESMS sur une période, en fonction de son autorisation de places et de sa durée de fonctionnement).
+Si les données journées réalisées et/ou journées théoriques sont manquantes pour l'établissement consulté alors le taux d’occupation global n’est pas calculé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ERRD Annexe 9a-9d (feuilles Activité Autres ESMS)
+Les ERRD (État Réalisé des Recettes et des Dépenses) et les CA (Compte Administratif), qu’ils soient dédiés PA ou PH, présentent une synthèse de l’activité de l’établissement (nombre de journées, nombre de bénéficiaires, taux d’occupation etc.)
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.”</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1718,12 +1811,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587C9ED0-279B-44AC-9485-AC6832055B1B}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="134.3984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1828,19 +1923,23 @@
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="343.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -1934,8 +2033,8 @@
   <mergeCells count="4">
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1946,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/public/templates/template_comparaison_MS.xlsx
+++ b/public/templates/template_comparaison_MS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://catamaniacrm-my.sharepoint.com/personal/y_elhouakmi_catamania_com/Documents/Documents/DNum/Helios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Helios\home\schlaifa\workspace\helios\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F079C0BB-4954-401D-98BD-E461652969BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6024470-244B-4C6C-949F-779E1AB78ED3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480461F9-2FAB-4D0F-AA06-BF1479CF6BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lisez-moi" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Indicateurs</t>
   </si>
@@ -1295,6 +1295,102 @@
   </si>
   <si>
     <t>Taux de vétusté des constructions (en %)</t>
+  </si>
+  <si>
+    <t>Taux d'occupation global (en %)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: CNSA 
+Le taux d’occupation est un indicateur permettant d’évaluer l’utilisation réelle des places disponibles dans un Établissement ou Service Médico-Social (ESMS). Il est couramment utilisé pour mesurer l’adéquation entre l’offre et la demande dans ces structures.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Calculé en divisant le nombre de journées réalisées sur les modalités Externat, semi internat, Internat, Séances, Autre1, Autre2 et Autre3 (c’est-à-dire le nombre total de journées d’accompagnement effectuées par les bénéficiaires) et le nombre de journées théoriques sur les modalités Externat, semi internat, Internat, Séances, Autre1, Autre2 et Autre3 (c’est-à-dire la capacité maximale théorique de l’ESMS sur une période, en fonction de son autorisation de places et de sa durée de fonctionnement).
+Si les données journées réalisées et/ou journées théoriques sont manquantes pour l'établissement consulté alors le taux d’occupation global n’est pas calculé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ERRD Annexe 9a-9d (feuilles Activité Autres ESMS)
+Les ERRD (État Réalisé des Recettes et des Dépenses) et les CA (Compte Administratif), qu’ils soient dédiés PA ou PH, présentent une synthèse de l’activité de l’établissement (nombre de journées, nombre de bénéficiaires, taux d’occupation etc.)
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.”</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1351,7 +1447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1370,6 +1466,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1710,14 +1809,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587C9ED0-279B-44AC-9485-AC6832055B1B}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="134.3984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1794,7 +1895,7 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1805,115 +1906,126 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="343.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="298.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="228" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="298.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1933,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
